--- a/documents/ipf-table-2.xlsx
+++ b/documents/ipf-table-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">1.7 (1.3-2.2)</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (3-12)</t>
+    <t xml:space="preserve">4 (2-6)</t>
   </si>
   <si>
     <t xml:space="preserve">Agricultural dust</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">1.6 (0.8-3.0)</t>
   </si>
   <si>
-    <t xml:space="preserve">12(0-40)</t>
+    <t xml:space="preserve">4 (0-12)</t>
   </si>
   <si>
     <t xml:space="preserve">Silica dust</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">1.7 (1.2-2.4)</t>
   </si>
   <si>
-    <t xml:space="preserve">14 (8-20)</t>
+    <t xml:space="preserve">3 (2-5)</t>
   </si>
 </sst>
 </file>
@@ -284,17 +284,17 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.7755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.7755102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.219387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.219387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="12.3316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/documents/ipf-table-2.xlsx
+++ b/documents/ipf-table-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,16 +37,16 @@
     <t xml:space="preserve">VGDF*</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7 (1.2-2.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23(11-35)</t>
+    <t xml:space="preserve">2.0 (1.2-3.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26(10-41)</t>
   </si>
   <si>
     <t xml:space="preserve">Metal dust</t>
   </si>
   <si>
-    <t xml:space="preserve">2 (1.3-3)</t>
+    <t xml:space="preserve">2.0 (1.3-3)</t>
   </si>
   <si>
     <t xml:space="preserve">8 (4-13)</t>
@@ -284,17 +284,17 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.219387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.219387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="12.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="12.4183673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -316,7 +316,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
